--- a/biology/Zoologie/Faucon_sacre/Faucon_sacre.xlsx
+++ b/biology/Zoologie/Faucon_sacre/Faucon_sacre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falco cherrug
 Le Faucon sacre (Falco cherrug) est une grande espèce de rapaces dont l'aire de répartition s'étend de l'Asie centrale au nord de l'Inde, à l'Europe orientale et à l'Italie, à la Tunisie, à l'Arabie et jusqu'à l'Éthiopie.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom est sacre, et non sacré. Il vient de l'arabe « çaqr » (صقر) qui signifie « faucon », terme passé au français, dès le XIIIe siècle pour désigner les oiseaux de proie. Le nom scientifique de l'espèce, « cherrug » a été créé par John Edward Gray (1800-1875) à partir du mot hindi désignant la femelle du faucon sacre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom est sacre, et non sacré. Il vient de l'arabe « çaqr » (صقر) qui signifie « faucon », terme passé au français, dès le XIIIe siècle pour désigner les oiseaux de proie. Le nom scientifique de l'espèce, « cherrug » a été créé par John Edward Gray (1800-1875) à partir du mot hindi désignant la femelle du faucon sacre.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 3.3, 2013) du Congrès ornithologique international (ordre phylogénique), cet oiseau est représenté par quatre sous-espèces :
 Falco cherrug cherrug J.E. Gray, 1834 ;
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,15 +619,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alimentation
-Reproduction</t>
-        </is>
-      </c>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -632,10 +647,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,36 +675,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Protection</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Faucon_sacre</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faucon_sacre</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
